--- a/biology/Origine et évolution du vivant/Myxinoidea/Myxinoidea.xlsx
+++ b/biology/Origine et évolution du vivant/Myxinoidea/Myxinoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Myxinoidea sont une sous-classe d'agnathes (animaux marins sans mâchoires, des myxines).
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les animaux de ce groupe sont des Craniates qui possèdent un appareil branchial particulier différent de celui des Vertébrés. Ils ont une allure vermiforme, sans vertèbres ni mâchoires. La tête se termine par un orifice nasopharyngien, Les plaques dentigères sont actionnées par un système lingual et diffèrent des mâchoires qui apparaissent dans le groupe des Gnathostomes.
 Les myxines actuelles comptent plus d'une soixantaine d'espèces principalement dans les mers froides et tempérées. Enfouies généralement dans les sédiments, elles se nourrissent principalement de vers annélides polychètes ainsi que de petits crustacés et de poissons morts ou malades.
@@ -549,7 +563,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Eptatretus atami
